--- a/src/masraf.xlsx
+++ b/src/masraf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taylanekinkara\Desktop\masraf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taylanekinkara\Desktop\expense\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -239,13 +239,13 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -531,7 +531,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,14 +583,14 @@
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="O1" s="7" t="s">
+      <c r="M1" s="9"/>
+      <c r="O1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="8"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
@@ -604,11 +604,11 @@
       </c>
       <c r="B2" s="1">
         <f>(J2*P2)*H2</f>
-        <v>157.90650000000002</v>
+        <v>164.80650000000003</v>
       </c>
       <c r="C2" s="1">
         <f>(P3*J2)*H2</f>
-        <v>143.94665000000001</v>
+        <v>150.23665</v>
       </c>
       <c r="D2" s="1">
         <f>M3*2</f>
@@ -616,14 +616,14 @@
       </c>
       <c r="E2" s="1">
         <f>B2+C2+D2</f>
-        <v>417.85315000000003</v>
+        <v>431.04315000000003</v>
       </c>
       <c r="F2" s="1">
         <f>(R2+R3)/60</f>
         <v>1.7</v>
       </c>
       <c r="H2" s="3">
-        <v>45.77</v>
+        <v>47.77</v>
       </c>
       <c r="I2" s="3">
         <v>5</v>
@@ -656,11 +656,11 @@
       </c>
       <c r="B3" s="1">
         <f>(P4*J2)*H2</f>
-        <v>82.38600000000001</v>
+        <v>85.986000000000004</v>
       </c>
       <c r="C3" s="1">
         <f>(P4*J2)*H2</f>
-        <v>82.38600000000001</v>
+        <v>85.986000000000004</v>
       </c>
       <c r="D3" s="1">
         <f>M2*2</f>
@@ -668,7 +668,7 @@
       </c>
       <c r="E3" s="1">
         <f>B3+C3+D3</f>
-        <v>228.77200000000002</v>
+        <v>235.97200000000001</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
@@ -698,11 +698,11 @@
       </c>
       <c r="B4" s="1">
         <f>(P3*J2)*H2</f>
-        <v>143.94665000000001</v>
+        <v>150.23665</v>
       </c>
       <c r="C4" s="1">
         <f>(P3*J2)*H2</f>
-        <v>143.94665000000001</v>
+        <v>150.23665</v>
       </c>
       <c r="D4" s="1">
         <f>M3*2</f>
@@ -710,7 +710,7 @@
       </c>
       <c r="E4" s="1">
         <f>B4+C4+D4</f>
-        <v>403.89330000000001</v>
+        <v>416.47329999999999</v>
       </c>
       <c r="F4" s="1">
         <f>(R3*2)/60</f>
@@ -753,7 +753,7 @@
       </c>
       <c r="B10" s="1">
         <f>20*E4</f>
-        <v>8077.866</v>
+        <v>8329.4660000000003</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
       </c>
       <c r="B11" s="1">
         <f>20*E3</f>
-        <v>4575.4400000000005</v>
+        <v>4719.4400000000005</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
       </c>
       <c r="B12" s="1">
         <f>(9*E2)+(11*E3)</f>
-        <v>6277.1703500000003</v>
+        <v>6475.0803500000002</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -780,16 +780,16 @@
       </c>
       <c r="B13" s="1">
         <f>B10+B7</f>
-        <v>9877.866</v>
+        <v>10129.466</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="1">
         <f>B12</f>
-        <v>6277.1703500000003</v>
+        <v>6475.0803500000002</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -798,7 +798,7 @@
       </c>
       <c r="B15" s="1">
         <f>B13-B14</f>
-        <v>3600.6956499999997</v>
+        <v>3654.3856500000002</v>
       </c>
     </row>
   </sheetData>
